--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_78.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,637 +488,651 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:00.500000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[('0:00:38.900000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.34, 44.58)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:03.820000', '0:00:06.460000'), ('0:00:01.360000', '0:00:04.740000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.44, 12.42)]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[('0:00:07.040000', '0:00:11.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:38.620000', '0:00:46.840000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1121,32 +1140,32 @@
           <t>schubert-winterreise_186</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1173,9 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(40.38, 42.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.82, 6.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
